--- a/opv_results.xlsx
+++ b/opv_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\ml_for_opvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780FE715-052D-49D8-9650-B7244C12809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956CB428-E5C9-485D-944A-658794626615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
     <sheet name="opv_results" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="41">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -432,6 +432,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of PCE - RF Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -916,7 +946,571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R of PCE - RF Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'for plotting'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'for plotting'!$P$2:$P$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>8.8524541626625403E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3569494716285594E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3440678332130804E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.209482533719349</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.207272858669764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'for plotting'!$P$2:$P$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>8.8524541626625403E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3569494716285594E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3440678332130804E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.209482533719349</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.207272858669764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'for plotting'!$M$2:$N$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Manual Fragments</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Manual Fragments</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manual Fragments</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manual Fragments</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Manual Fragments</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>error_corrected_data (n=567)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>old data (n=386)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>electronic (n=486)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>device (n=80)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>impt_device (n=108)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'for plotting'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.67665961088969695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51812458842905895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69799765338361097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38852529151653498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54144495253863301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F9D-48C1-8A09-849EC020C3E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="834442832"/>
+        <c:axId val="834441584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="834442832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834441584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="834441584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834442832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1459,20 +2053,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1492,6 +2589,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C5E12-840F-A1D1-0478-D6AF956A6793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1799,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8006122-67A7-4469-ADD5-B623037ECCEC}">
   <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
@@ -3139,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D475D60-FFAE-409E-8A1F-29BAE8738757}">
   <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7654,10 +8787,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDC4CFD-1BD9-4FF4-8437-2519E306281E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,7 +8798,7 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7678,8 +8811,20 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -7695,8 +8840,23 @@
         <f>opv_results_updated!AE3</f>
         <v>6.3964336543134298E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="str">
+        <f>opv_results_updated!V2</f>
+        <v>Manual Fragments</v>
+      </c>
+      <c r="O2">
+        <f>opv_results_updated!V3</f>
+        <v>0.67665961088969695</v>
+      </c>
+      <c r="P2">
+        <f>opv_results_updated!W3</f>
+        <v>8.8524541626625403E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -7712,8 +8872,23 @@
         <f>opv_results!AE3</f>
         <v>7.1580188319444293E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="str">
+        <f>opv_results!V2</f>
+        <v>Manual Fragments</v>
+      </c>
+      <c r="O3">
+        <f>opv_results!V3</f>
+        <v>0.51812458842905895</v>
+      </c>
+      <c r="P3">
+        <f>opv_results!W3</f>
+        <v>8.3569494716285594E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -7729,8 +8904,23 @@
         <f>electronic_opv_results!AE3</f>
         <v>4.24098231097974E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="str">
+        <f>electronic_opv_results!V2</f>
+        <v>Manual Fragments</v>
+      </c>
+      <c r="O4">
+        <f>electronic_opv_results!V3</f>
+        <v>0.69799765338361097</v>
+      </c>
+      <c r="P4">
+        <f>electronic_opv_results!W3</f>
+        <v>7.3440678332130804E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -7746,8 +8936,23 @@
         <f>device_opv_results!AE3</f>
         <v>0.27069625068716602</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="str">
+        <f>device_opv_results!V2</f>
+        <v>Manual Fragments</v>
+      </c>
+      <c r="O5">
+        <f>device_opv_results!V3</f>
+        <v>0.38852529151653498</v>
+      </c>
+      <c r="P5">
+        <f>device_opv_results!W3</f>
+        <v>0.209482533719349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -7762,6 +8967,21 @@
       <c r="D6">
         <f>impt_device_opv_results!AE3</f>
         <v>0.20463735715686601</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="str">
+        <f>impt_device_opv_results!V2</f>
+        <v>Manual Fragments</v>
+      </c>
+      <c r="O6">
+        <f>impt_device_opv_results!V3</f>
+        <v>0.54144495253863301</v>
+      </c>
+      <c r="P6">
+        <f>impt_device_opv_results!W3</f>
+        <v>0.207272858669764</v>
       </c>
     </row>
   </sheetData>

--- a/opv_results.xlsx
+++ b/opv_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\ml_for_opvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956CB428-E5C9-485D-944A-658794626615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2663234-43FF-49D5-9B93-DBA186D52017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
     <sheet name="opv_results" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="44">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>impt_device (n=108)</t>
+  </si>
+  <si>
+    <t>Fragments</t>
+  </si>
+  <si>
+    <t>Min Group (n=567)</t>
+  </si>
+  <si>
+    <t>Saeki Group (n=567, incl. electronic)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'for plotting'!$D$2:$D$6</c:f>
+                <c:f>'for plotting'!$D$4:$D$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -610,7 +619,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'for plotting'!$D$2:$D$6</c:f>
+                <c:f>'for plotting'!$D$4:$D$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -648,7 +657,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'for plotting'!$A$2:$B$6</c:f>
+              <c:f>'for plotting'!$A$4:$B$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -690,7 +699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'for plotting'!$C$2:$C$6</c:f>
+              <c:f>'for plotting'!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1110,7 +1119,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'for plotting'!$P$2:$P$6</c:f>
+                <c:f>'for plotting'!$P$4:$P$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1134,7 +1143,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'for plotting'!$P$2:$P$6</c:f>
+                <c:f>'for plotting'!$P$4:$P$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1172,7 +1181,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'for plotting'!$M$2:$N$6</c:f>
+              <c:f>'for plotting'!$M$4:$N$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
                 <c:lvl>
@@ -1214,7 +1223,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'for plotting'!$O$2:$O$6</c:f>
+              <c:f>'for plotting'!$O$4:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2561,15 +2570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>141276</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470452</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96252</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2597,15 +2606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>192156</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>125894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>426719</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4273,7 +4282,7 @@
   <dimension ref="A1:AV35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,6 +4869,1217 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="11">
+        <v>0.62813295732464702</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4.0063390331622303E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.3562483116984299E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3.1830711874147599E-3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.62722836544639105</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5.1770962499537103E-2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.4303301423788001E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3.0877768752701502E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.46530509831612499</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.203692855871177</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.22634518146514E-2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>9.2782946045133607E-3</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.64005482322291296</v>
+      </c>
+      <c r="O7" s="11">
+        <v>8.5304780706269304E-2</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2.2209321334957999E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4.1318134018361197E-3</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.68974660237630203</v>
+      </c>
+      <c r="S7" s="11">
+        <v>6.54224137422003E-2</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2.07730904221534E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4.4055107107002101E-3</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.66614184463233195</v>
+      </c>
+      <c r="W7" s="11">
+        <v>4.9989602798155702E-2</v>
+      </c>
+      <c r="X7" s="10">
+        <v>2.23126612603664E-2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>2.9812976697144501E-3</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0.67359427736516497</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>2.3429390100160201E-2</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>2.2387131676077799E-2</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>1.71740272032131E-3</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0.38421869779887902</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0.13710956712522299</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>3.34338959306478E-2</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>4.81031595882474E-3</v>
+      </c>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+    </row>
+    <row r="8" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7">
+        <v>567</v>
+      </c>
+      <c r="C27" s="7">
+        <v>567</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4199</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>567</v>
+      </c>
+      <c r="G27" s="7">
+        <v>567</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2913</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="20" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE94539-DB0A-472C-B265-9C3EBD618CED}">
+  <dimension ref="A1:AV35"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="25" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.77734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="1"/>
+    <col min="31" max="48" width="6.77734375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+    </row>
+    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.64019707781375501</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.7454559274925703E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.15359041845093599</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1.1156571041259E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.64779420706744495</v>
+      </c>
+      <c r="G3" s="11">
+        <v>6.5917394838849494E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.15310024551714599</v>
+      </c>
+      <c r="I3" s="10">
+        <v>9.3276859194347302E-3</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.64848780945474105</v>
+      </c>
+      <c r="K3" s="11">
+        <v>5.8674020575526203E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.15196405288224299</v>
+      </c>
+      <c r="M3" s="10">
+        <v>9.8987004567273797E-3</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.57104777853046396</v>
+      </c>
+      <c r="O3" s="11">
+        <v>7.2524323871029805E-2</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.166754952507843</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>9.28071818725173E-3</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0.70022593270060196</v>
+      </c>
+      <c r="S3" s="11">
+        <v>6.7865905231643001E-2</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.14165081689268699</v>
+      </c>
+      <c r="U3" s="10">
+        <v>9.6826569767700706E-3</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0.69799765338361097</v>
+      </c>
+      <c r="W3" s="11">
+        <v>7.3440678332130804E-2</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.14242627430007501</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>1.1048918242824E-2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.62073101000284803</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.11201511965437499</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.15858274569848199</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>1.6712764699067999E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0.735927981000429</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>4.24098231097974E-2</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.13475517046942501</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>1.11386073323601E-2</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+    </row>
+    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.63757495456629998</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.5270216397166E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.15692889690399101</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7.47375888749957E-3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.62773057150350997</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7.4671518860555994E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.156849324703216</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.2125969864428E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.62454830677483297</v>
+      </c>
+      <c r="K4" s="11">
+        <v>8.58012949043538E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.15871660411357799</v>
+      </c>
+      <c r="M4" s="10">
+        <v>8.5354316979646596E-3</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.46042030693685698</v>
+      </c>
+      <c r="O4" s="11">
+        <v>7.6458949540749596E-2</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.196159377694129</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1.0552804917097E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.72249716521953</v>
+      </c>
+      <c r="S4" s="11">
+        <v>4.6311555346654099E-2</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.139455631375312</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1.1219062842428599E-2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0.68936070865482801</v>
+      </c>
+      <c r="W4" s="11">
+        <v>7.2950542602011295E-2</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0.14724190533161099</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>1.08081260696053E-2</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0.61338001957192001</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0.121818937827622</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.161457285284996</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>1.9953597337007498E-2</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0.73813988774602302</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>5.6677876161538597E-2</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0.13335739076137501</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>1.14648658782243E-2</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+    </row>
+    <row r="5" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+    </row>
+    <row r="7" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
@@ -5253,37 +6473,34 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
     </row>
-    <row r="26" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="22"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="19"/>
@@ -5296,27 +6513,22 @@
         <v>19</v>
       </c>
       <c r="B27" s="7">
-        <v>567</v>
-      </c>
-      <c r="C27" s="7">
-        <v>567</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>567</v>
-      </c>
-      <c r="G27" s="7">
-        <v>567</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -5390,40 +6602,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="20" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE94539-DB0A-472C-B265-9C3EBD618CED}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090AA089-3AF0-4715-92F8-6DE6C93BD25F}">
   <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="25" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="6.77734375" style="1" customWidth="1"/>
     <col min="26" max="26" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="6.77734375" style="1" customWidth="1"/>
     <col min="30" max="30" width="8.88671875" style="1"/>
@@ -5668,100 +6877,100 @@
         <v>3</v>
       </c>
       <c r="B3" s="11">
-        <v>0.64019707781375501</v>
+        <v>0.34070619534164398</v>
       </c>
       <c r="C3" s="11">
-        <v>5.7454559274925703E-2</v>
+        <v>0.15440717537027801</v>
       </c>
       <c r="D3" s="10">
-        <v>0.15359041845093599</v>
+        <v>0.123076200711825</v>
       </c>
       <c r="E3" s="10">
-        <v>1.1156571041259E-2</v>
+        <v>2.1151676985403201E-2</v>
       </c>
       <c r="F3" s="11">
-        <v>0.64779420706744495</v>
+        <v>0.40041399472584399</v>
       </c>
       <c r="G3" s="11">
-        <v>6.5917394838849494E-2</v>
+        <v>0.396922961096566</v>
       </c>
       <c r="H3" s="10">
-        <v>0.15310024551714599</v>
+        <v>0.108932368405395</v>
       </c>
       <c r="I3" s="10">
-        <v>9.3276859194347302E-3</v>
+        <v>1.8105809306606501E-2</v>
       </c>
       <c r="J3" s="11">
-        <v>0.64848780945474105</v>
+        <v>0.38162584139244699</v>
       </c>
       <c r="K3" s="11">
-        <v>5.8674020575526203E-2</v>
+        <v>0.13367077652852999</v>
       </c>
       <c r="L3" s="10">
-        <v>0.15196405288224299</v>
+        <v>0.122828717817572</v>
       </c>
       <c r="M3" s="10">
-        <v>9.8987004567273797E-3</v>
+        <v>2.1108272640736801E-2</v>
       </c>
       <c r="N3" s="11">
-        <v>0.57104777853046396</v>
+        <v>0.376855108789862</v>
       </c>
       <c r="O3" s="11">
-        <v>7.2524323871029805E-2</v>
+        <v>0.194906592946471</v>
       </c>
       <c r="P3" s="10">
-        <v>0.166754952507843</v>
+        <v>0.12846344194312401</v>
       </c>
       <c r="Q3" s="10">
-        <v>9.28071818725173E-3</v>
+        <v>2.0561367171827601E-2</v>
       </c>
       <c r="R3" s="11">
-        <v>0.70022593270060196</v>
+        <v>0.39761035815252599</v>
       </c>
       <c r="S3" s="11">
-        <v>6.7865905231643001E-2</v>
+        <v>0.26778126526026003</v>
       </c>
       <c r="T3" s="10">
-        <v>0.14165081689268699</v>
+        <v>0.12309441922915</v>
       </c>
       <c r="U3" s="10">
-        <v>9.6826569767700706E-3</v>
+        <v>1.9664648037731498E-2</v>
       </c>
       <c r="V3" s="11">
-        <v>0.69799765338361097</v>
+        <v>0.38852529151653498</v>
       </c>
       <c r="W3" s="11">
-        <v>7.3440678332130804E-2</v>
+        <v>0.209482533719349</v>
       </c>
       <c r="X3" s="10">
-        <v>0.14242627430007501</v>
+        <v>0.12333358716059301</v>
       </c>
       <c r="Y3" s="10">
-        <v>1.1048918242824E-2</v>
+        <v>1.34152303186422E-2</v>
       </c>
       <c r="Z3" s="11">
-        <v>0.62073101000284803</v>
+        <v>0.41449990645227702</v>
       </c>
       <c r="AA3" s="11">
-        <v>0.11201511965437499</v>
+        <v>0.22765982541226601</v>
       </c>
       <c r="AB3" s="10">
-        <v>0.15858274569848199</v>
+        <v>0.12934002360310501</v>
       </c>
       <c r="AC3" s="10">
-        <v>1.6712764699067999E-2</v>
+        <v>2.8735950442307801E-2</v>
       </c>
       <c r="AD3" s="11">
-        <v>0.735927981000429</v>
+        <v>0.45407344336669903</v>
       </c>
       <c r="AE3" s="11">
-        <v>4.24098231097974E-2</v>
+        <v>0.27069625068716602</v>
       </c>
       <c r="AF3" s="10">
-        <v>0.13475517046942501</v>
+        <v>0.120240471268413</v>
       </c>
       <c r="AG3" s="10">
-        <v>1.11386073323601E-2</v>
+        <v>2.0261925889611499E-2</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
@@ -5784,101 +6993,1226 @@
         <v>4</v>
       </c>
       <c r="B4" s="11">
-        <v>0.63757495456629998</v>
+        <v>0.334730888515334</v>
       </c>
       <c r="C4" s="11">
-        <v>6.5270216397166E-2</v>
+        <v>0.15826027061792</v>
       </c>
       <c r="D4" s="10">
-        <v>0.15692889690399101</v>
+        <v>0.124129529203464</v>
       </c>
       <c r="E4" s="10">
-        <v>7.47375888749957E-3</v>
+        <v>2.0751094628409499E-2</v>
       </c>
       <c r="F4" s="11">
-        <v>0.62773057150350997</v>
+        <v>0.42350359940982102</v>
       </c>
       <c r="G4" s="11">
-        <v>7.4671518860555994E-2</v>
+        <v>0.37429957601791702</v>
       </c>
       <c r="H4" s="10">
-        <v>0.156849324703216</v>
+        <v>0.107733192609829</v>
       </c>
       <c r="I4" s="10">
-        <v>1.2125969864428E-2</v>
+        <v>1.8861413421736199E-2</v>
       </c>
       <c r="J4" s="11">
-        <v>0.62454830677483297</v>
+        <v>0.37781127817701599</v>
       </c>
       <c r="K4" s="11">
-        <v>8.58012949043538E-2</v>
+        <v>0.133497695992111</v>
       </c>
       <c r="L4" s="10">
-        <v>0.15871660411357799</v>
+        <v>0.123054169202758</v>
       </c>
       <c r="M4" s="10">
-        <v>8.5354316979646596E-3</v>
+        <v>2.1248355312088199E-2</v>
       </c>
       <c r="N4" s="11">
-        <v>0.46042030693685698</v>
+        <v>0.38011304000577401</v>
       </c>
       <c r="O4" s="11">
-        <v>7.6458949540749596E-2</v>
+        <v>0.194985767687231</v>
       </c>
       <c r="P4" s="10">
-        <v>0.196159377694129</v>
+        <v>0.12817892723244401</v>
       </c>
       <c r="Q4" s="10">
-        <v>1.0552804917097E-2</v>
+        <v>2.02323993924255E-2</v>
       </c>
       <c r="R4" s="11">
-        <v>0.72249716521953</v>
+        <v>0.39719652011134698</v>
       </c>
       <c r="S4" s="11">
-        <v>4.6311555346654099E-2</v>
+        <v>0.26766076594699101</v>
       </c>
       <c r="T4" s="10">
-        <v>0.139455631375312</v>
+        <v>0.123171717728445</v>
       </c>
       <c r="U4" s="10">
-        <v>1.1219062842428599E-2</v>
+        <v>1.9654117251307598E-2</v>
       </c>
       <c r="V4" s="11">
-        <v>0.68936070865482801</v>
+        <v>0.38856316359831</v>
       </c>
       <c r="W4" s="11">
-        <v>7.2950542602011295E-2</v>
+        <v>0.20949508500285199</v>
       </c>
       <c r="X4" s="10">
-        <v>0.14724190533161099</v>
+        <v>0.12332873623827301</v>
       </c>
       <c r="Y4" s="10">
-        <v>1.08081260696053E-2</v>
+        <v>1.3421266255906001E-2</v>
       </c>
       <c r="Z4" s="11">
-        <v>0.61338001957192001</v>
+        <v>0.41510747450699098</v>
       </c>
       <c r="AA4" s="11">
-        <v>0.121818937827622</v>
+        <v>0.23021176502575399</v>
       </c>
       <c r="AB4" s="10">
-        <v>0.161457285284996</v>
+        <v>0.12920668543909999</v>
       </c>
       <c r="AC4" s="10">
-        <v>1.9953597337007498E-2</v>
+        <v>2.8738634791026601E-2</v>
       </c>
       <c r="AD4" s="11">
-        <v>0.73813988774602302</v>
+        <v>0.46504711449744801</v>
       </c>
       <c r="AE4" s="11">
-        <v>5.6677876161538597E-2</v>
+        <v>0.269345466803044</v>
       </c>
       <c r="AF4" s="10">
-        <v>0.13335739076137501</v>
+        <v>0.119633399730131</v>
       </c>
       <c r="AG4" s="10">
-        <v>1.14648658782243E-2</v>
-      </c>
+        <v>1.9511758320773401E-2</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+    </row>
+    <row r="5" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.37248988967291202</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.24244148032555399</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.12201096085793001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.6569375090406499E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.30988887563614698</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.154352433521215</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.12627876819568901</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2.1440541943409198E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.36517407700485799</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.20373004310526399</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.124775915105659</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.97513214902541E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.44214982231773697</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.16509273954753101</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.12082679257603</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1.6873802276520199E-2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.19336858464161799</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.121030291954928</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.13534515810033201</v>
+      </c>
+      <c r="U5" s="10">
+        <v>2.16077055132698E-2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0.18159013932823201</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0.19658608681957401</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.14153375345684699</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1.36785584632591E-2</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>1.6487553924775199E-3</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.11738964836103399</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0.202714698425255</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>4.5671479669606899E-2</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0.32200527099083098</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0.22646544622477799</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0.13288722895878599</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>1.9001758850667599E-2</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+    </row>
+    <row r="7" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+    </row>
+    <row r="8" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7">
+        <v>87</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="18:21" x14ac:dyDescent="0.3">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3639FAA3-E59D-43DC-813D-27DA78ACF0F0}">
+  <dimension ref="A1:AV35"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="25" width="6.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.77734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="1"/>
+    <col min="31" max="48" width="6.77734375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+    </row>
+    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.41799927967067602</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.113005504288557</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.12503222919992299</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7.4093529532644198E-3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.43465326913675201</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.13149654589905699</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.123202359444013</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.2866368749178301E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.40394456797580902</v>
+      </c>
+      <c r="K3" s="11">
+        <v>8.7777268352693796E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.124339713038797</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1.5602012216025E-2</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11">
+        <v>0.50698567235842895</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0.121043146530337</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.120610838441247</v>
+      </c>
+      <c r="U3" s="10">
+        <v>9.2553224344709192E-3</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0.54144495253863301</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.207272858669764</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.116028951330423</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>1.61981319780071E-2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0.48487596765117602</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0.213018174518978</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.124727940705912</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>2.6980856741300401E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0.49267380777903602</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>0.20463735715686601</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0.120406392049781</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>1.2551372738069499E-2</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+    </row>
+    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
@@ -6415,16 +8749,16 @@
       <c r="F26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
@@ -6436,7 +8770,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="7">
-        <v>486</v>
+        <v>108</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6528,2274 +8862,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090AA089-3AF0-4715-92F8-6DE6C93BD25F}">
-  <dimension ref="A1:AV35"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="25" width="6.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.77734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="1"/>
-    <col min="31" max="48" width="6.77734375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.34070619534164398</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.15440717537027801</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.123076200711825</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.1151676985403201E-2</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.40041399472584399</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.396922961096566</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.108932368405395</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1.8105809306606501E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.38162584139244699</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.13367077652852999</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.122828717817572</v>
-      </c>
-      <c r="M3" s="10">
-        <v>2.1108272640736801E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0.376855108789862</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.194906592946471</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.12846344194312401</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2.0561367171827601E-2</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0.39761035815252599</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0.26778126526026003</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.12309441922915</v>
-      </c>
-      <c r="U3" s="10">
-        <v>1.9664648037731498E-2</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.38852529151653498</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0.209482533719349</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0.12333358716059301</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>1.34152303186422E-2</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0.41449990645227702</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0.22765982541226601</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.12934002360310501</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>2.8735950442307801E-2</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.45407344336669903</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0.27069625068716602</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.120240471268413</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>2.0261925889611499E-2</v>
-      </c>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-    </row>
-    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.334730888515334</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.15826027061792</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.124129529203464</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2.0751094628409499E-2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.42350359940982102</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.37429957601791702</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.107733192609829</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1.8861413421736199E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.37781127817701599</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.133497695992111</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.123054169202758</v>
-      </c>
-      <c r="M4" s="10">
-        <v>2.1248355312088199E-2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.38011304000577401</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.194985767687231</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.12817892723244401</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2.02323993924255E-2</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0.39719652011134698</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0.26766076594699101</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0.123171717728445</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1.9654117251307598E-2</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0.38856316359831</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0.20949508500285199</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0.12332873623827301</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>1.3421266255906001E-2</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0.41510747450699098</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0.23021176502575399</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0.12920668543909999</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>2.8738634791026601E-2</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.46504711449744801</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0.269345466803044</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0.119633399730131</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>1.9511758320773401E-2</v>
-      </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-    </row>
-    <row r="5" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.37248988967291202</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.24244148032555399</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.12201096085793001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.6569375090406499E-2</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.30988887563614698</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.154352433521215</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.12627876819568901</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2.1440541943409198E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.36517407700485799</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.20373004310526399</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.124775915105659</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.97513214902541E-2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.44214982231773697</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.16509273954753101</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.12082679257603</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>1.6873802276520199E-2</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0.19336858464161799</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0.121030291954928</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.13534515810033201</v>
-      </c>
-      <c r="U5" s="10">
-        <v>2.16077055132698E-2</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0.18159013932823201</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0.19658608681957401</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0.14153375345684699</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>1.36785584632591E-2</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>1.6487553924775199E-3</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0.11738964836103399</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0.202714698425255</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>4.5671479669606899E-2</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0.32200527099083098</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>0.22646544622477799</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0.13288722895878599</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>1.9001758850667599E-2</v>
-      </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-    </row>
-    <row r="7" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-    </row>
-    <row r="8" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-    </row>
-    <row r="11" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-    </row>
-    <row r="12" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-    </row>
-    <row r="14" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-    </row>
-    <row r="15" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-    </row>
-    <row r="26" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="7">
-        <v>87</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-    </row>
-    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-    </row>
-    <row r="33" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-    </row>
-    <row r="34" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-    </row>
-    <row r="35" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3639FAA3-E59D-43DC-813D-27DA78ACF0F0}">
-  <dimension ref="A1:AV35"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="25" width="6.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="6.77734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="1"/>
-    <col min="31" max="48" width="6.77734375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.41799927967067602</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.113005504288557</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.12503222919992299</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7.4093529532644198E-3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.43465326913675201</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.13149654589905699</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.123202359444013</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1.2866368749178301E-2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.40394456797580902</v>
-      </c>
-      <c r="K3" s="11">
-        <v>8.7777268352693796E-2</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.124339713038797</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1.5602012216025E-2</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11">
-        <v>0.50698567235842895</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0.121043146530337</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.120610838441247</v>
-      </c>
-      <c r="U3" s="10">
-        <v>9.2553224344709192E-3</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.54144495253863301</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0.207272858669764</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0.116028951330423</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>1.61981319780071E-2</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0.48487596765117602</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0.213018174518978</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0.124727940705912</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>2.6980856741300401E-2</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.49267380777903602</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0.20463735715686601</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0.120406392049781</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>1.2551372738069499E-2</v>
-      </c>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-    </row>
-    <row r="4" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-    </row>
-    <row r="5" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-    </row>
-    <row r="7" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-    </row>
-    <row r="8" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-    </row>
-    <row r="11" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-    </row>
-    <row r="12" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-    </row>
-    <row r="14" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-    </row>
-    <row r="15" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-    </row>
-    <row r="26" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="7">
-        <v>108</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-    </row>
-    <row r="31" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-    </row>
-    <row r="33" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-    </row>
-    <row r="34" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-    </row>
-    <row r="35" spans="18:21" x14ac:dyDescent="0.3">
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDC4CFD-1BD9-4FF4-8437-2519E306281E}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -8826,160 +8904,206 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>0.85</v>
+      </c>
+      <c r="P3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B4" t="str">
         <f>opv_results_updated!AD2</f>
         <v>Fingerprints</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <f>opv_results_updated!AD3</f>
         <v>0.75023839873161102</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <f>opv_results_updated!AE3</f>
         <v>6.3964336543134298E-2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N4" t="str">
         <f>opv_results_updated!V2</f>
         <v>Manual Fragments</v>
       </c>
-      <c r="O2">
+      <c r="O4">
         <f>opv_results_updated!V3</f>
         <v>0.67665961088969695</v>
       </c>
-      <c r="P2">
+      <c r="P4">
         <f>opv_results_updated!W3</f>
         <v>8.8524541626625403E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B5" t="str">
         <f>opv_results!AD2</f>
         <v>Fingerprints</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <f>opv_results!AD3</f>
         <v>0.63779712363765595</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <f>opv_results!AE3</f>
         <v>7.1580188319444293E-2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N5" t="str">
         <f>opv_results!V2</f>
         <v>Manual Fragments</v>
       </c>
-      <c r="O3">
+      <c r="O5">
         <f>opv_results!V3</f>
         <v>0.51812458842905895</v>
       </c>
-      <c r="P3">
+      <c r="P5">
         <f>opv_results!W3</f>
         <v>8.3569494716285594E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B6" t="str">
         <f>electronic_opv_results!AD2</f>
         <v>Fingerprints</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <f>electronic_opv_results!AD3</f>
         <v>0.735927981000429</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <f>electronic_opv_results!AE3</f>
         <v>4.24098231097974E-2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N6" t="str">
         <f>electronic_opv_results!V2</f>
         <v>Manual Fragments</v>
       </c>
-      <c r="O4">
+      <c r="O6">
         <f>electronic_opv_results!V3</f>
         <v>0.69799765338361097</v>
       </c>
-      <c r="P4">
+      <c r="P6">
         <f>electronic_opv_results!W3</f>
         <v>7.3440678332130804E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B7" t="str">
         <f>device_opv_results!AD2</f>
         <v>Fingerprints</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <f>device_opv_results!AD3</f>
         <v>0.45407344336669903</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <f>device_opv_results!AE3</f>
         <v>0.27069625068716602</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N7" t="str">
         <f>device_opv_results!V2</f>
         <v>Manual Fragments</v>
       </c>
-      <c r="O5">
+      <c r="O7">
         <f>device_opv_results!V3</f>
         <v>0.38852529151653498</v>
       </c>
-      <c r="P5">
+      <c r="P7">
         <f>device_opv_results!W3</f>
         <v>0.209482533719349</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B8" t="str">
         <f>impt_device_opv_results!AD2</f>
         <v>Fingerprints</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <f>impt_device_opv_results!AD3</f>
         <v>0.49267380777903602</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <f>impt_device_opv_results!AE3</f>
         <v>0.20463735715686601</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>40</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N8" t="str">
         <f>impt_device_opv_results!V2</f>
         <v>Manual Fragments</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <f>impt_device_opv_results!V3</f>
         <v>0.54144495253863301</v>
       </c>
-      <c r="P6">
+      <c r="P8">
         <f>impt_device_opv_results!W3</f>
         <v>0.207272858669764</v>
       </c>

--- a/opv_results.xlsx
+++ b/opv_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley Lo\Documents\Summer 2021 NSERC\ml_for_opvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2663234-43FF-49D5-9B93-DBA186D52017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB3125-8038-4704-9BA0-E6FF704A8D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="5" xr2:uid="{89160D80-ECCB-4350-8EBA-80C0C1DD8511}"/>
   </bookViews>
   <sheets>
     <sheet name="opv_results" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="device_opv_results" sheetId="3" r:id="rId4"/>
     <sheet name="impt_device_opv_results" sheetId="4" r:id="rId5"/>
     <sheet name="for plotting" sheetId="6" r:id="rId6"/>
+    <sheet name="all_results" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="51">
   <si>
     <t>Summary of Model vs. Data Representation</t>
   </si>
@@ -202,7 +203,28 @@
     <t>Min Group (n=567)</t>
   </si>
   <si>
-    <t>Saeki Group (n=567, incl. electronic)</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Saeki Group (n=567)</t>
+  </si>
+  <si>
+    <t>Fingerprints + Material Properties (HOMO, LUMO, Eg, Mw)</t>
+  </si>
+  <si>
+    <t>Saeki Group (n=566)</t>
+  </si>
+  <si>
+    <t>processing (n=108)</t>
+  </si>
+  <si>
+    <t>contact layer, mobilities --&gt; material properties</t>
   </si>
 </sst>
 </file>
@@ -531,6 +553,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-734F-47A8-B44F-D07351CB4477}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-734F-47A8-B44F-D07351CB4477}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -595,23 +655,26 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'for plotting'!$D$4:$D$8</c:f>
+                <c:f>'for plotting'!$D$2:$D$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
+                  <c:ptCount val="7"/>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>6.3964336543134298E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>7.1580188319444293E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>4.24098231097974E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
                     <c:v>0.27069625068716602</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>0.20463735715686601</c:v>
                   </c:pt>
                 </c:numCache>
@@ -619,23 +682,26 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'for plotting'!$D$4:$D$8</c:f>
+                <c:f>'for plotting'!$D$2:$D$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
+                  <c:ptCount val="7"/>
+                  <c:pt idx="1">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>6.3964336543134298E-2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>7.1580188319444293E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>4.24098231097974E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
                     <c:v>0.27069625068716602</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>0.20463735715686601</c:v>
                   </c:pt>
                 </c:numCache>
@@ -657,15 +723,15 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'for plotting'!$A$4:$B$8</c:f>
+              <c:f>'for plotting'!$A$2:$B$8</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fingerprints</c:v>
+                    <c:v>Fragments</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fingerprints</c:v>
+                    <c:v>Fingerprints + Material Properties (HOMO, LUMO, Eg, Mw)</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Fingerprints</c:v>
@@ -676,22 +742,34 @@
                   <c:pt idx="4">
                     <c:v>Fingerprints</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Fingerprints</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Fingerprints</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Min Group (n=567)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Saeki Group (n=566)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>error_corrected_data (n=567)</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="3">
                     <c:v>old data (n=386)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>electronic (n=486)</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
                     <c:v>device (n=80)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>impt_device (n=108)</c:v>
+                  <c:pt idx="6">
+                    <c:v>processing (n=108)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -699,23 +777,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'for plotting'!$C$4:$C$8</c:f>
+              <c:f>'for plotting'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.75023839873161102</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.63779712363765595</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.735927981000429</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.45407344336669903</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.49267380777903602</c:v>
                 </c:pt>
               </c:numCache>
@@ -2570,15 +2654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>141276</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76914</xdr:rowOff>
+      <xdr:colOff>147902</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>470452</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>96252</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2605,16 +2689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>192156</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>125894</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417443</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>46381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>426719</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>42406</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4281,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D475D60-FFAE-409E-8A1F-29BAE8738757}">
   <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,7 +5560,7 @@
   <dimension ref="A1:AV35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6610,7 +6694,7 @@
   <dimension ref="A1:AV35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8864,16 +8948,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDC4CFD-1BD9-4FF4-8437-2519E306281E}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -8924,28 +9008,28 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.85</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O3">
         <v>0.85</v>
       </c>
       <c r="P3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -9078,7 +9162,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B8" t="str">
         <f>impt_device_opv_results!AD2</f>
@@ -9106,10 +9190,44 @@
       <c r="P8">
         <f>impt_device_opv_results!W3</f>
         <v>0.207272858669764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0E65A3-8569-483E-8B0E-AEAF20475785}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>